--- a/자유게시판/04.24 상품대응 AWS vs Azure.xlsx
+++ b/자유게시판/04.24 상품대응 AWS vs Azure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021년도 SK인포섹 클라우드 보안 융합전문가 양성과정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF95972-ECB5-4CC6-98C2-9C7D0E78BA9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5CCC25-3707-4773-8E7F-9BDEAB42ED9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7439E475-3C5C-46C4-9B3F-78810AF33B7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>람다 (Lambda)</t>
   </si>
@@ -320,6 +320,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -425,81 +429,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -534,13 +468,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,107 +731,137 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -974,626 +1182,636 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D994FD-4A23-4793-95E1-79C7D01F1AD4}">
-  <dimension ref="B2:J45"/>
+  <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="31.625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="30"/>
-    <col min="6" max="6" width="47.625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="16"/>
-    <col min="11" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="31.625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="47.625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="7"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="F1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+    </row>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="1"/>
       <c r="F3" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="16" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="7" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="16"/>
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21" t="s">
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="16" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="18"/>
+      <c r="I13" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="2:10" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="16" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="16" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="16" t="s">
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="16" t="s">
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="16" t="s">
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="7" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="16" t="s">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="17"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="16" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="17"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="2:9" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="16" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="16" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="16" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="16" t="s">
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="16" t="s">
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="17"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="16" t="s">
+      <c r="G35" s="17"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="16" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="16" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="16" t="s">
+      <c r="G41" s="17"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="16" t="s">
+      <c r="G42" s="17"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="31"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="16" t="s">
+      <c r="G43" s="17"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G45" s="26"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="16" t="s">
+      <c r="G45" s="21"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="7" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="B21:D22"/>
+    <mergeCell ref="F1:H2"/>
+    <mergeCell ref="B1:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
